--- a/Mismatched target (1bp).xlsx
+++ b/Mismatched target (1bp).xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juyoungshin/Dropbox/Codes/seqeuence_manipulation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C09411E-0E4B-624A-AD7A-B8E6E2D1A88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="1 bp MM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
   <si>
     <t>Original sequence</t>
   </si>
@@ -37,6 +31,9 @@
     <t>TCTATTTAACTGCCTAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
     <t>TCTATTTAgCTGCCTAGTCGAACTCAATATCTCC</t>
   </si>
   <si>
@@ -217,7 +214,190 @@
     <t>TCTATTTAACTGCCTAGTCGAACTCAAcATCTCC</t>
   </si>
   <si>
+    <t>AAATTTTAgTCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAcTCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAtTCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAaCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAgCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAAcCTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATaTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATgTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATtTCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCaCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCgCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCcCCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTaCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTgCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTtCGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCaGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCgGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCtGTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCaTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCcTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCtTGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGaGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGgGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGcGCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTaCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTcCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTtCAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGaAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGgAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGtAATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCgATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCcATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCtATATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAgTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAcTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAtTATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAaATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAgATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAAcATCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATgTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATcTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATtTCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAaCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAgCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATAcCCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATaCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATgCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATtCAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCaAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCgAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCtAGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCgGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCcGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCtGTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAaTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAcTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAtTGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAGaGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAGgGAGCTC</t>
+  </si>
+  <si>
+    <t>AAATTTTAATCTCCGTGCAATATCCAGcGAGCTC</t>
+  </si>
+  <si>
     <t>LIN7B</t>
+  </si>
+  <si>
+    <t>ANKRD22</t>
   </si>
   <si>
     <t>ALL_POINT_MUTATION</t>
@@ -226,8 +406,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,14 +470,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -344,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,27 +548,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,24 +582,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,20 +757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -656,16 +786,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -673,16 +803,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -690,16 +820,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -707,16 +837,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -724,16 +854,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -741,16 +871,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -758,16 +888,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -775,16 +905,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -792,16 +922,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -809,16 +939,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -826,16 +956,16 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -843,16 +973,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -860,16 +990,16 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -877,16 +1007,16 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -894,16 +1024,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -911,16 +1041,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -928,16 +1058,16 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -945,16 +1075,16 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -962,16 +1092,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -979,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -996,16 +1126,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1013,16 +1143,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1030,16 +1160,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1047,16 +1177,16 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1064,16 +1194,16 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1081,16 +1211,16 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1098,16 +1228,16 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1115,16 +1245,16 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1132,16 +1262,16 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1149,16 +1279,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1166,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1183,16 +1313,16 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1200,16 +1330,16 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1217,16 +1347,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1234,16 +1364,16 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1251,16 +1381,16 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1268,16 +1398,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1285,16 +1415,16 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1302,16 +1432,16 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1319,16 +1449,16 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1336,16 +1466,16 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1353,16 +1483,16 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1370,16 +1500,16 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1387,16 +1517,16 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1404,16 +1534,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1421,16 +1551,16 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1438,16 +1568,16 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1455,16 +1585,16 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1472,16 +1602,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1489,16 +1619,16 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1506,16 +1636,16 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1523,16 +1653,16 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1540,16 +1670,16 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1557,16 +1687,16 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1574,16 +1704,16 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1591,16 +1721,16 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1608,16 +1738,16 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1625,16 +1755,16 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1642,16 +1772,16 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1659,13 +1789,1033 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="D61" t="s">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="E61" t="s">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>127</v>
+      </c>
+      <c r="E75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>127</v>
+      </c>
+      <c r="E85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>127</v>
+      </c>
+      <c r="E94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>127</v>
+      </c>
+      <c r="E98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>105</v>
+      </c>
+      <c r="D101" t="s">
+        <v>127</v>
+      </c>
+      <c r="E101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>127</v>
+      </c>
+      <c r="E102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>108</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" t="s">
+        <v>127</v>
+      </c>
+      <c r="E108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>113</v>
+      </c>
+      <c r="D109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>127</v>
+      </c>
+      <c r="E117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>127</v>
+      </c>
+      <c r="E118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>127</v>
+      </c>
+      <c r="E119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D121" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
